--- a/Dissertation Graphs/FNN Modified Offline Graphs.xlsx
+++ b/Dissertation Graphs/FNN Modified Offline Graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\Dissertation Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848054FC-3898-4991-8A4D-A2A509BDD77D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18E6C25-F050-4869-967A-A19632C36579}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D468815-7203-4649-8ECC-FA2540EB9C3C}"/>
   </bookViews>
@@ -8100,7 +8100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B89DBDA-50D9-4F6F-BAA9-2C21C8522EE7}">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N75" sqref="N75"/>
     </sheetView>
   </sheetViews>
